--- a/biology/Histoire de la zoologie et de la botanique/André_Desrochers/André_Desrochers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/André_Desrochers/André_Desrochers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Desrochers</t>
+          <t>André_Desrochers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Desrochers est un chercheur québécois possédant une expertise en ornithologie et en écologie.
-En 2015, il œuvre depuis près de trente ans dans ces domaines de recherche. Depuis le milieu des années 1990, il œuvre aussi à promouvoir la conservation de l'environnement à travers diverses organisations[1].
+En 2015, il œuvre depuis près de trente ans dans ces domaines de recherche. Depuis le milieu des années 1990, il œuvre aussi à promouvoir la conservation de l'environnement à travers diverses organisations.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Desrochers</t>
+          <t>André_Desrochers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Années de jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une passion à l'autre
 Ce fut d'abord l'astronomie qui passionna le jeune André :
-"J’ai toujours été fasciné par le ciel. Cette fascination remonte aux soirées passées dehors à chercher les constellations, le tome 9 de l’Encyclopédie de la jeunesse de la maison d’édition Grolier en main. J’avais 10 ans"[2].
+"J’ai toujours été fasciné par le ciel. Cette fascination remonte aux soirées passées dehors à chercher les constellations, le tome 9 de l’Encyclopédie de la jeunesse de la maison d’édition Grolier en main. J’avais 10 ans".
 Puis, un beau jour, alors entré de plain-pied dans l'adolescence, tout a basculé pour lui, se découvrant soudainement une nouvelle passion :
-"C’est par une chaude soirée de mes 16 ans, lors d’une pluie de météorites, les Perséides, que mon attention de scientifique en herbe a soudainement dévié vers le monde des oiseaux. Ce soir-là, des oiseaux migrateurs nocturnes, surtout des parulines et des grives, dont les brefs sifflements émanaient de nulle part, semblaient s’abattre tout autour de moi et de mon télescope rudimentaire, un Newton de 3 pouces. Quelques années plus tard, le Saint-Laurent, ce grand attracteur d’oiseaux, a scellé pour de bon ma passion pour ces derniers"[2].
+"C’est par une chaude soirée de mes 16 ans, lors d’une pluie de météorites, les Perséides, que mon attention de scientifique en herbe a soudainement dévié vers le monde des oiseaux. Ce soir-là, des oiseaux migrateurs nocturnes, surtout des parulines et des grives, dont les brefs sifflements émanaient de nulle part, semblaient s’abattre tout autour de moi et de mon télescope rudimentaire, un Newton de 3 pouces. Quelques années plus tard, le Saint-Laurent, ce grand attracteur d’oiseaux, a scellé pour de bon ma passion pour ces derniers".
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Desrochers</t>
+          <t>André_Desrochers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Parcours académique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études en biologie à l'Université Laval (Québec) et en zoologie à l'Université de l'Alberta (Canada), il obtint un doctorat en zoologie à l'Université de Cambridge (Royaume-Uni). Après trois stages postdoctoraux, en zoologie à l'Université de Cambridge pour le premier (1991), les deux autres à l'Université Laval dont l'un en biologie (1992-1993) et l'autre en phytologie (1993-1994), il fut chercheur invité d'abord au département d'écologie et systématique de l'Université d'Helsinki en Finlande (2001-2002) puis au laboratoire d'ornithologie de l'Université Cornell aux États-Unis, le Cornell Lab of Ornithology (2008-2009). Il est membre distingué (fellow) de l'American Ornithological Society[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études en biologie à l'Université Laval (Québec) et en zoologie à l'Université de l'Alberta (Canada), il obtint un doctorat en zoologie à l'Université de Cambridge (Royaume-Uni). Après trois stages postdoctoraux, en zoologie à l'Université de Cambridge pour le premier (1991), les deux autres à l'Université Laval dont l'un en biologie (1992-1993) et l'autre en phytologie (1993-1994), il fut chercheur invité d'abord au département d'écologie et systématique de l'Université d'Helsinki en Finlande (2001-2002) puis au laboratoire d'ornithologie de l'Université Cornell aux États-Unis, le Cornell Lab of Ornithology (2008-2009). Il est membre distingué (fellow) de l'American Ornithological Society.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Desrochers</t>
+          <t>André_Desrochers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +594,67 @@
           <t>Activités professionnelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses travaux portent avant tout sur l’impact des pratiques forestières sur le comportement, l’écologie et l’évolution rapide des oiseaux et des mammifères. La modélisation statistique est un thème récurrent de ses travaux[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses travaux portent avant tout sur l’impact des pratiques forestières sur le comportement, l’écologie et l’évolution rapide des oiseaux et des mammifères. La modélisation statistique est un thème récurrent de ses travaux.
 Ses domaines d'expertise sont les suivants :
 aménagement et urbanisme ;
 analyse spatiale ;
 écologie animale (oiseaux, mammifères) ;
 sylviculture et faune ;
 écologie du paysage ;
-protection des espèces de la faune et de la flore[5].
+protection des espèces de la faune et de la flore.
 Plus précisément, les créneaux qui orientent sa recherche se regroupent en trois sous-disciplines de l'écologie :
 la fragmentation des habitats ;
 l'écologie des paysages hivernaux ;
-l'écologie des oiseaux des tourbières[6].
-Il a publié depuis le début de sa carrière plus d'une centaine d’articles scientifiques et chapitres de livres lesquels ont été cités plus de 4000 fois dans la littérature scientifique[7]. Côté livres justement, il a participé à la rédaction d'une quinzaine d'ouvrages, seul ou en collaboration avec d'autres auteurs[8],[9]. Outre ces recherches, il participe à un projet de recherche international, le Boreal Avian Modelling (BAM) Project, faisant partie du comité technique[10]. Il enseigne présentement à l'Université Laval (Québec) tout en assumant la charge de directeur des programmes de maîtrise et de doctorat en sciences forestières. Depuis l'an 2000, il porte un intérêt tout particulier à la Forêt Montmorency[11]. Avec ses 412 km2, c'est la plus grande forêt au monde consacrée à l’enseignement et à la recherche[12].
-En 2004, il organisa le plus grand congrès annuel de chercheurs en ornithologie en Amérique du Nord, le congrès de l'American Ornithological Society. Ce congrès eut lieu à Québec sous les auspices de l'Université Laval et réunissait pour l'occasion la Société des Ornithologues du Canada (en) à sa consœur américaine[13].
+l'écologie des oiseaux des tourbières.
+Il a publié depuis le début de sa carrière plus d'une centaine d’articles scientifiques et chapitres de livres lesquels ont été cités plus de 4000 fois dans la littérature scientifique. Côté livres justement, il a participé à la rédaction d'une quinzaine d'ouvrages, seul ou en collaboration avec d'autres auteurs,. Outre ces recherches, il participe à un projet de recherche international, le Boreal Avian Modelling (BAM) Project, faisant partie du comité technique. Il enseigne présentement à l'Université Laval (Québec) tout en assumant la charge de directeur des programmes de maîtrise et de doctorat en sciences forestières. Depuis l'an 2000, il porte un intérêt tout particulier à la Forêt Montmorency. Avec ses 412 km2, c'est la plus grande forêt au monde consacrée à l’enseignement et à la recherche.
+En 2004, il organisa le plus grand congrès annuel de chercheurs en ornithologie en Amérique du Nord, le congrès de l'American Ornithological Society. Ce congrès eut lieu à Québec sous les auspices de l'Université Laval et réunissait pour l'occasion la Société des Ornithologues du Canada (en) à sa consœur américaine.
 Il est également membre des groupes de recherche suivants :
 Centre d'étude de la forêt (CEF-ULAVAL) ;
 Chaire de recherche industrielle du Conseil de recherches en sciences naturelles et en génie du Canada (CRSNG) en aménagement des tourbières ;
-Groupe de recherche en écologie des tourbières (GRET)[14].
-De 2003 à 2006, il a dirigé le Centre de Recherche en Biologie Forestière (CRBF). Fondé en 1985, le CRBF fusionna en 2006 avec le Groupe de Recherche en Écologie Forestière interuniversitaire (GREFi) pour donner naissance au Centre d'étude de la forêt, regroupant quelque 60 chercheurs dans 11 universités du Québec[15].
+Groupe de recherche en écologie des tourbières (GRET).
+De 2003 à 2006, il a dirigé le Centre de Recherche en Biologie Forestière (CRBF). Fondé en 1985, le CRBF fusionna en 2006 avec le Groupe de Recherche en Écologie Forestière interuniversitaire (GREFi) pour donner naissance au Centre d'étude de la forêt, regroupant quelque 60 chercheurs dans 11 universités du Québec.
 Il a été membre du conseil scientifique de Bird Studies Canada (en français, Études d'oiseaux Canada) (1997-1999), du conseil d’administration de la Société des ornithologues du Canada (1997-2001) et du North American Board of Governors de la Society for Conservation Biology (2001-2004). Il est membre depuis 2003 du comité scientifique de l'Observatoire d'oiseaux de Tadoussac, un organisme sans but lucratif relié à Explos-Nature dévoué à connaître les tendances de populations d'oiseaux qui vivent et transitent par le Québec. 
-Espèces étudiées
-Parmi les espèces d'oiseaux qu'il étudia, on retrouve le merle noir, l'oie des neiges, la mésange à tête noire, la mésange à tête brune, l'accenteur alpin, le bruant à gorge blanche, la grive de Bicknell, la paruline couronnée, le grand pic. Chez les mammifères, ses recherches ont porté plus particulièrement sur la martre d'Amérique (Martes americana) et le Polatouche de Sibérie[8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Desrochers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Desrochers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activités professionnelles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces étudiées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les espèces d'oiseaux qu'il étudia, on retrouve le merle noir, l'oie des neiges, la mésange à tête noire, la mésange à tête brune, l'accenteur alpin, le bruant à gorge blanche, la grive de Bicknell, la paruline couronnée, le grand pic. Chez les mammifères, ses recherches ont porté plus particulièrement sur la martre d'Amérique (Martes americana) et le Polatouche de Sibérie.
 </t>
         </is>
       </c>
